--- a/output/excelfile.xlsx
+++ b/output/excelfile.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/excelfile.xlsx
+++ b/output/excelfile.xlsx
@@ -15,30 +15,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>Weighted Average Maturity</t>
-  </si>
-  <si>
-    <t>5.31 yrs</t>
-  </si>
-  <si>
-    <t>Weighted Average Coupon</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>Weighted Average Yield To Maturity</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>Effective Duration</t>
-  </si>
-  <si>
-    <t>5.11 yrs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fonds</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Anzahl Positionen</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Modiﬁed Duration</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>Rendite auf Verfall</t>
+  </si>
+  <si>
+    <t>3.97%</t>
+  </si>
+  <si>
+    <t>2.51%</t>
+  </si>
+  <si>
+    <t>Restlaufzeit in Jahren</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>Durchschnittl. Coupon</t>
+  </si>
+  <si>
+    <t>6.02%</t>
+  </si>
+  <si>
+    <t>5.86%</t>
+  </si>
+  <si>
+    <t>Durchschnittsrating</t>
+  </si>
+  <si>
+    <t>BB-</t>
   </si>
 </sst>
 </file>
@@ -374,7 +410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,36 +418,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
